--- a/tools/xlsx2json/excel/config.xlsx
+++ b/tools/xlsx2json/excel/config.xlsx
@@ -9,167 +9,184 @@
   <sheets>
     <sheet name="PlayerCfg" sheetId="2" r:id="rId1"/>
     <sheet name="SkillCfg" sheetId="3" r:id="rId2"/>
+    <sheet name="SceneCfg" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>res#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>def#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身位置特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标位置特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能距离</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为类型buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移类型buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制buff能否生效buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>self_effect#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_effect#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior_buff#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_buff#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurt_buff#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>constrol_buff#string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
   <si>
     <t>类型ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>res#string</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>血</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>id#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>def#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身位置特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标位置特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能距离</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为类型buff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移类型buff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害类型buff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制buff能否生效buff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>id#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ani#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>self_effect#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_effect#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dis#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>behavior_buff#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>move_buff#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hurt_buff#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>constrol_buff#string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/3D/Girl.lh</t>
+    <t>资源名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/3D/Girl01.lh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/3D/1v1Scene.ls</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/3D/Boy01.lh</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1131,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1131,48 +1148,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1180,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1203,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1232,7 +1249,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1245,66 +1262,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1312,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1326,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1340,13 +1357,65 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xlsx2json/excel/config.xlsx
+++ b/tools/xlsx2json/excel/config.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerCfg" sheetId="2" r:id="rId1"/>
     <sheet name="SkillCfg" sheetId="3" r:id="rId2"/>
     <sheet name="SceneCfg" sheetId="4" r:id="rId3"/>
+    <sheet name="MonsterCfg" sheetId="5" r:id="rId4"/>
+    <sheet name="NpcCfg" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1130,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1422,4 +1424,237 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/xlsx2json/excel/config.xlsx
+++ b/tools/xlsx2json/excel/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="4"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerCfg" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>skill#number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>类型Id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Attack01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -189,6 +181,42 @@
   </si>
   <si>
     <t>res/3D/Boy01.lh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill#[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo1_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo1_3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1161,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="A1:H8"/>
+      <selection activeCell="G14" sqref="G1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1150,7 +1178,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1168,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1191,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1199,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1213,8 +1241,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1222,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1236,8 +1264,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1260,70 +1288,71 @@
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1331,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1345,10 +1374,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1359,12 +1388,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
@@ -1390,18 +1433,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1409,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1417,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1474,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:I11"/>
+      <selection activeCell="G1" sqref="G1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1447,7 +1490,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1488,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1496,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1510,8 +1553,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1519,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1533,8 +1576,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1547,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G1:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1559,11 +1602,13 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1604,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1612,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1626,8 +1671,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1635,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1649,8 +1694,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xlsx2json/excel/config.xlsx
+++ b/tools/xlsx2json/excel/config.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerCfg" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="SceneCfg" sheetId="4" r:id="rId3"/>
     <sheet name="MonsterCfg" sheetId="5" r:id="rId4"/>
     <sheet name="NpcCfg" sheetId="6" r:id="rId5"/>
+    <sheet name="BehaviorBuffCfg" sheetId="8" r:id="rId6"/>
+    <sheet name="MoveBuffCfg" sheetId="9" r:id="rId7"/>
+    <sheet name="HurtBuffCfg" sheetId="10" r:id="rId8"/>
+    <sheet name="ControlBuffCfg" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -217,6 +221,150 @@
   </si>
   <si>
     <t>Combo1_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否移动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕眩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>互动控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanMove#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAtk#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸掌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚怪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dir#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放距离</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放伤害动作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可切换,不可选中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可选中状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearBuff#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableBehavior#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableMove#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableHurt#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableSelect#number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为buff开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否移动buff开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害buff开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否选中Buff开关</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1158,10 +1306,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G1:G14"/>
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1276,10 +1425,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1419,6 +1569,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1471,6 +1622,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1588,6 +1740,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1702,4 +1855,484 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/xlsx2json/excel/config.xlsx
+++ b/tools/xlsx2json/excel/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="8"/>
+    <workbookView xWindow="6735" yWindow="240" windowWidth="24615" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerCfg" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -365,6 +365,14 @@
   </si>
   <si>
     <t>能否选中Buff开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>asynres#[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"res/3D/Scenes1.lh","res/3D/Scenes2.lh","res/3D/Scenes3.lh","res/3D/Scenes4.lh"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1570,48 +1578,61 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="10" width="108.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1647,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1744,7 +1765,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2132,7 +2153,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2211,7 +2232,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/tools/xlsx2json/excel/config.xlsx
+++ b/tools/xlsx2json/excel/config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -176,18 +176,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>res/3D/Girl01.lh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/3D/1v1Scene.ls</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/3D/Boy01.lh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>技能</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -372,7 +360,22 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>"res/3D/Scenes1.lh","res/3D/Scenes2.lh","res/3D/Scenes3.lh","res/3D/Scenes4.lh"</t>
+    <t>res/3D/Conventional/1v1Scene.ls</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"res/3D/Conventional/Scenes1.lh","res/3D/Conventional/Scenes2.lh","res/3D/Conventional/Scenes3.lh","res/3D/Conventional/Scenes4.lh"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"res/3D/Conventional/Scenes1.lh","res/3D/Conventional/Scenes2.lh","res/3D/Conventional/Scenes3.lh","res/3D/Conventional/Scenes5.lh"</t>
+  </si>
+  <si>
+    <t>res/3D/Conventional/Girl01.lh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/3D/Conventional/Boy01.lh</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1321,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1353,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1376,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1384,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1399,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1407,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1422,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1535,7 +1538,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1549,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1560,10 +1563,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1581,13 +1584,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
     <col min="3" max="10" width="108.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1610,7 +1613,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1618,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1629,10 +1632,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1650,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1704,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1712,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1727,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1735,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1750,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1768,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1823,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1831,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1846,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1854,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1869,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1901,16 +1904,16 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1921,13 +1924,13 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1935,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -1952,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -1969,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1986,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -2027,16 +2030,16 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2047,13 +2050,13 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2061,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -2078,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2095,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -2112,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -2129,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>500</v>
@@ -2170,13 +2173,13 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2187,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2198,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2212,13 +2215,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2253,25 +2256,25 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2282,22 +2285,22 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2305,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -2331,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>1000</v>
